--- a/beispiele/Beispiel_EXCEL_pivot.xlsx
+++ b/beispiele/Beispiel_EXCEL_pivot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/github/ct-resourcen/beispiele/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D7ADD-A484-114E-B507-8D9D3980FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43AE170-CE37-8F42-8C34-7B3D02D0AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="620" windowWidth="28400" windowHeight="16780" xr2:uid="{388BA184-9441-ED41-90C2-D11F5EA72DA2}"/>
   </bookViews>
@@ -1327,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B21089C-69A3-DC42-8225-776A7FA7FCC0}">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="A1:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
